--- a/Week 42/Shareena.xlsx
+++ b/Week 42/Shareena.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>Customer</t>
   </si>
@@ -117,6 +117,15 @@
   <si>
     <t>Printout for estimate</t>
   </si>
+  <si>
+    <t>Citrol Lubricants</t>
+  </si>
+  <si>
+    <t>Import MRN and ImportBill amounts are different</t>
+  </si>
+  <si>
+    <t>Working</t>
+  </si>
 </sst>
 </file>
 
@@ -208,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -229,6 +238,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -762,7 +774,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$C$16,Sheet1!$C$17,Sheet1!#REF!,Sheet1!#REF!,Sheet1!#REF!,Sheet1!#REF!)</c:f>
+              <c:f>(Sheet1!$C$18,Sheet1!$C$19,Sheet1!#REF!,Sheet1!#REF!,Sheet1!#REF!,Sheet1!#REF!)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -780,7 +792,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>(Sheet1!$A$16,Sheet1!$A$17,Sheet1!#REF!,Sheet1!#REF!,Sheet1!#REF!,Sheet1!#REF!)</c15:sqref>
+                          <c15:sqref>(Sheet1!$A$18,Sheet1!$A$19,Sheet1!#REF!,Sheet1!#REF!,Sheet1!#REF!,Sheet1!#REF!)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1069,7 +1081,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(Sheet1!$A$46,Sheet1!$A$47)</c:f>
+              <c:f>(Sheet1!$A$48,Sheet1!$A$49)</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1083,7 +1095,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$B$46,Sheet1!$B$47)</c:f>
+              <c:f>(Sheet1!$B$48,Sheet1!$B$49)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1211,6 +1223,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1504,7 +1517,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$16:$A$19</c:f>
+              <c:f>Sheet1!$A$18:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1524,7 +1537,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$16:$C$19</c:f>
+              <c:f>Sheet1!$C$18:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1616,6 +1629,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1772,12 +1786,14 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$22:$A$24</c:f>
+              <c:f>Sheet1!$A$24:$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1794,7 +1810,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$22:$C$24</c:f>
+              <c:f>Sheet1!$C$24:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1833,6 +1849,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4234,13 +4251,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4266,13 +4283,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>100013</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4298,13 +4315,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1343025</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4328,13 +4345,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2047875</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4360,8 +4377,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A21:C24" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A21:C24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A23:C26" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A23:C26"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Category" dataDxfId="11"/>
     <tableColumn id="2" name="No of Times" dataDxfId="10"/>
@@ -4372,8 +4389,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A15:C19" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A15:C19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A17:C21" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A17:C21"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Customer" dataDxfId="6"/>
     <tableColumn id="2" name="No of Times" dataDxfId="5"/>
@@ -4384,8 +4401,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A45:B47" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="A45:B47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A47:B49" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A47:B49"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Work" dataDxfId="1"/>
     <tableColumn id="2" name="Time" dataDxfId="0"/>
@@ -4681,10 +4698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E87"/>
+  <dimension ref="A2:E89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4789,189 +4806,200 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2">
-        <v>15</v>
-      </c>
+      <c r="B15" s="7"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2">
-        <v>6</v>
+      <c r="A17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
       </c>
       <c r="C18" s="2">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
       </c>
       <c r="C19" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="A20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>8</v>
+      <c r="A21" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1">
-        <v>15</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="2">
-        <v>2</v>
-      </c>
-      <c r="C23" s="2">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
       </c>
-      <c r="C24" s="2">
-        <v>6</v>
+      <c r="C24" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="A25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>8</v>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" s="2">
-        <v>21</v>
-      </c>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B49" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="8"/>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="8"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="8"/>
     </row>
-    <row r="59" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
+    <row r="61" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
@@ -4981,32 +5009,40 @@
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
     </row>
-    <row r="79" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:2" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="D81" s="2"/>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
     </row>
-    <row r="82" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="9"/>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="8"/>
-      <c r="B83" s="9"/>
-      <c r="D83" s="8"/>
+    <row r="81" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:4" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="D83" s="2"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
+    <row r="84" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="9"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="8"/>
+      <c r="B85" s="9"/>
+      <c r="D85" s="8"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
